--- a/Data_science_outputs/500pop/output_results/output_analysis_4.xlsx
+++ b/Data_science_outputs/500pop/output_results/output_analysis_4.xlsx
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19528.09303895063</v>
+        <v>15307.85069381629</v>
       </c>
       <c r="C3" t="n">
         <v>11601.05999157375</v>
       </c>
       <c r="D3" t="n">
-        <v>4266.908804067767</v>
+        <v>833.5794467324417</v>
       </c>
       <c r="E3" t="n">
-        <v>3771.370835528562</v>
+        <v>2825.673217592491</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7082.758775032312</v>
+        <v>7241.871470626517</v>
       </c>
       <c r="C4" t="n">
         <v>5868.708525862906</v>
       </c>
       <c r="D4" t="n">
-        <v>3508.399345889753</v>
+        <v>442.1657644405556</v>
       </c>
       <c r="E4" t="n">
-        <v>3656.318383763535</v>
+        <v>2579.961218619072</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2628.024</v>
+        <v>2271.016</v>
       </c>
       <c r="C5" t="n">
         <v>1938.013</v>
@@ -544,7 +544,7 @@
         <v>5.001</v>
       </c>
       <c r="E5" t="n">
-        <v>10.024</v>
+        <v>22.023</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -556,16 +556,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14780.00975</v>
+        <v>9328.085500000008</v>
       </c>
       <c r="C6" t="n">
         <v>7057.012250000002</v>
       </c>
       <c r="D6" t="n">
-        <v>700.001</v>
+        <v>586.004</v>
       </c>
       <c r="E6" t="n">
-        <v>1419.002</v>
+        <v>1282.001</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18287.33850000002</v>
+        <v>13779.41100000003</v>
       </c>
       <c r="C7" t="n">
         <v>9745</v>
       </c>
       <c r="D7" t="n">
-        <v>3911.005</v>
+        <v>810</v>
       </c>
       <c r="E7" t="n">
-        <v>2593.014</v>
+        <v>2076.004</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24974.04175000001</v>
+        <v>21117.26400000003</v>
       </c>
       <c r="C8" t="n">
         <v>16048.62350000004</v>
       </c>
       <c r="D8" t="n">
-        <v>7908</v>
+        <v>1095</v>
       </c>
       <c r="E8" t="n">
-        <v>4525.005999999999</v>
+        <v>3380.005</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54467.20400000001</v>
+        <v>48357.26000000002</v>
       </c>
       <c r="C9" t="n">
         <v>27617.19700000003</v>
       </c>
       <c r="D9" t="n">
-        <v>9848</v>
+        <v>4532.005</v>
       </c>
       <c r="E9" t="n">
-        <v>28935.003</v>
+        <v>22752.004</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>10263965701.27701</v>
+        <v>8045806324.673006</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>501165791.6360005</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5883735486329276</v>
+        <v>0.760955816886735</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>2242687267.417</v>
+        <v>438129357.203</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2185010484921995</v>
+        <v>0.05445437530101201</v>
       </c>
     </row>
     <row r="13">
@@ -693,10 +693,10 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>1982232511.153001</v>
+        <v>1485173843.166</v>
       </c>
       <c r="G13" t="n">
-        <v>0.193125402874873</v>
+        <v>0.184589807812253</v>
       </c>
     </row>
   </sheetData>
